--- a/output/Phase.xlsx
+++ b/output/Phase.xlsx
@@ -648,22 +648,22 @@
         <v>7023</v>
       </c>
       <c r="I4" s="3">
-        <v>35149837.06206554</v>
+        <v>34181328.52926175</v>
       </c>
       <c r="J4" s="3">
-        <v>34280357.43877611</v>
+        <v>33476038.09192182</v>
       </c>
       <c r="K4" s="3">
-        <v>35855170.06460179</v>
+        <v>35076199.22592485</v>
       </c>
       <c r="L4" s="3">
-        <v>37984805.67607906</v>
+        <v>37371299.60768432</v>
       </c>
       <c r="M4" s="3">
-        <v>39782217.07243659</v>
+        <v>39612291.29145883</v>
       </c>
       <c r="N4" s="3">
-        <v>44376953.04395427</v>
+        <v>44185534.98916744</v>
       </c>
       <c r="O4" s="4">
         <v>0.8181818181818182</v>
@@ -678,55 +678,55 @@
         <v>0.8181818181818182</v>
       </c>
       <c r="S4" s="4">
-        <v>0.7272727272727273</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="T4" s="5">
-        <v>6939.750653912249</v>
+        <v>6748.534754049704</v>
       </c>
       <c r="U4" s="5">
-        <v>6285.937001700945</v>
+        <v>6138.450186471408</v>
       </c>
       <c r="V4" s="5">
-        <v>6006.897313553658</v>
+        <v>5876.394576298349</v>
       </c>
       <c r="W4" s="5">
-        <v>5791.24953134305</v>
+        <v>5697.713006202824</v>
       </c>
       <c r="X4" s="5">
-        <v>5853.769433848821</v>
+        <v>5828.765640297062</v>
       </c>
       <c r="Y4" s="5">
-        <v>6318.802939478039</v>
+        <v>6291.547058118674</v>
       </c>
       <c r="Z4" s="5">
-        <v>-653.8136522113036</v>
+        <v>-610.0845675782966</v>
       </c>
       <c r="AA4" s="5">
-        <v>-932.8533403585907</v>
+        <v>-872.1401777513547</v>
       </c>
       <c r="AB4" s="5">
-        <v>-1148.501122569199</v>
+        <v>-1050.82174784688</v>
       </c>
       <c r="AC4" s="5">
-        <v>-1085.981220063428</v>
+        <v>-919.7691137526426</v>
       </c>
       <c r="AD4" s="5">
-        <v>-620.94771443421</v>
+        <v>-456.9876959310304</v>
       </c>
       <c r="AE4" s="4">
-        <v>-0.0942128449302021</v>
+        <v>-0.09040252289020123</v>
       </c>
       <c r="AF4" s="4">
-        <v>-0.1344217374485493</v>
+        <v>-0.1292340055340154</v>
       </c>
       <c r="AG4" s="4">
-        <v>-0.1654960213767532</v>
+        <v>-0.1557110967260407</v>
       </c>
       <c r="AH4" s="4">
-        <v>-0.1564870662105434</v>
+        <v>-0.1362916762339709</v>
       </c>
       <c r="AI4" s="4">
-        <v>-0.08947694887051216</v>
+        <v>-0.06771658035202355</v>
       </c>
     </row>
     <row r="5" spans="1:35">
@@ -734,106 +734,106 @@
         <v>15</v>
       </c>
       <c r="B5" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C5" s="2">
-        <v>116961</v>
+        <v>118268</v>
       </c>
       <c r="D5" s="2">
-        <v>124002.5</v>
+        <v>125340.5</v>
       </c>
       <c r="E5" s="2">
-        <v>130821.5</v>
+        <v>132212.5</v>
       </c>
       <c r="F5" s="2">
-        <v>137975.5</v>
+        <v>139443.5</v>
       </c>
       <c r="G5" s="2">
-        <v>143398</v>
+        <v>144879</v>
       </c>
       <c r="H5" s="2">
-        <v>147240</v>
+        <v>148823</v>
       </c>
       <c r="I5" s="3">
-        <v>898190343.6204177</v>
+        <v>882860789.9731221</v>
       </c>
       <c r="J5" s="3">
-        <v>904090921.8944118</v>
+        <v>891927046.566197</v>
       </c>
       <c r="K5" s="3">
-        <v>919738685.0082086</v>
+        <v>908792226.186622</v>
       </c>
       <c r="L5" s="3">
-        <v>933833685.2846119</v>
+        <v>924955143.841405</v>
       </c>
       <c r="M5" s="3">
-        <v>934117189.156744</v>
+        <v>940297923.9891421</v>
       </c>
       <c r="N5" s="3">
-        <v>986622531.6244998</v>
+        <v>993483854.3376101</v>
       </c>
       <c r="O5" s="4">
-        <v>0.8440366972477065</v>
+        <v>0.8363636363636363</v>
       </c>
       <c r="P5" s="4">
-        <v>0.8440366972477065</v>
+        <v>0.8454545454545455</v>
       </c>
       <c r="Q5" s="4">
-        <v>0.9082568807339449</v>
+        <v>0.8636363636363636</v>
       </c>
       <c r="R5" s="4">
-        <v>0.9541284403669725</v>
+        <v>0.9181818181818182</v>
       </c>
       <c r="S5" s="4">
-        <v>0.8990825688073395</v>
+        <v>0.8545454545454545</v>
       </c>
       <c r="T5" s="5">
-        <v>7679.40034387888</v>
+        <v>7464.916883460633</v>
       </c>
       <c r="U5" s="5">
-        <v>7290.908827599539</v>
+        <v>7116.032300542897</v>
       </c>
       <c r="V5" s="5">
-        <v>7030.485700043255</v>
+        <v>6873.723938255626</v>
       </c>
       <c r="W5" s="5">
-        <v>6768.112348095219</v>
+        <v>6633.189383810683</v>
       </c>
       <c r="X5" s="5">
-        <v>6514.157722958089</v>
+        <v>6490.229253302011</v>
       </c>
       <c r="Y5" s="5">
-        <v>6700.777856727111</v>
+        <v>6675.606958182607</v>
       </c>
       <c r="Z5" s="5">
-        <v>-388.4915162793413</v>
+        <v>-348.8845829177353</v>
       </c>
       <c r="AA5" s="5">
-        <v>-648.9146438356256</v>
+        <v>-591.1929452050063</v>
       </c>
       <c r="AB5" s="5">
-        <v>-911.2879957836612</v>
+        <v>-831.7274996499491</v>
       </c>
       <c r="AC5" s="5">
-        <v>-1165.242620920792</v>
+        <v>-974.6876301586217</v>
       </c>
       <c r="AD5" s="5">
-        <v>-978.6224871517697</v>
+        <v>-789.3099252780257</v>
       </c>
       <c r="AE5" s="4">
-        <v>-0.05058878283237322</v>
+        <v>-0.04673656630936218</v>
       </c>
       <c r="AF5" s="4">
-        <v>-0.08450069208240518</v>
+        <v>-0.07919618589657185</v>
       </c>
       <c r="AG5" s="4">
-        <v>-0.1186665566289995</v>
+        <v>-0.1114181862483608</v>
       </c>
       <c r="AH5" s="4">
-        <v>-0.1517361471914388</v>
+        <v>-0.1305691202427387</v>
       </c>
       <c r="AI5" s="4">
-        <v>-0.1274347531486378</v>
+        <v>-0.1057359294953211</v>
       </c>
     </row>
     <row r="6" spans="1:35">
@@ -841,106 +841,106 @@
         <v>16</v>
       </c>
       <c r="B6" s="2">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="C6" s="2">
-        <v>19592.5</v>
+        <v>19672.5</v>
       </c>
       <c r="D6" s="2">
-        <v>20157.5</v>
+        <v>20213</v>
       </c>
       <c r="E6" s="2">
-        <v>22006</v>
+        <v>22084.5</v>
       </c>
       <c r="F6" s="2">
-        <v>22332.5</v>
+        <v>22417.5</v>
       </c>
       <c r="G6" s="2">
-        <v>22694</v>
+        <v>22824</v>
       </c>
       <c r="H6" s="2">
-        <v>20374.5</v>
+        <v>20542</v>
       </c>
       <c r="I6" s="3">
-        <v>229791042.9658611</v>
+        <v>226019806.8174876</v>
       </c>
       <c r="J6" s="3">
-        <v>219451454.9346323</v>
+        <v>216456982.3022987</v>
       </c>
       <c r="K6" s="3">
-        <v>223818276.3034325</v>
+        <v>221037807.501679</v>
       </c>
       <c r="L6" s="3">
-        <v>226010101.5754989</v>
+        <v>224332814.9380396</v>
       </c>
       <c r="M6" s="3">
-        <v>216228820.0924853</v>
+        <v>216848423.2295027</v>
       </c>
       <c r="N6" s="3">
-        <v>207461998.5333614</v>
+        <v>208240430.2469323</v>
       </c>
       <c r="O6" s="4">
-        <v>0.6506410256410257</v>
+        <v>0.6496815286624203</v>
       </c>
       <c r="P6" s="4">
-        <v>0.8044871794871795</v>
+        <v>0.7993630573248408</v>
       </c>
       <c r="Q6" s="4">
-        <v>0.7660256410256411</v>
+        <v>0.7515923566878981</v>
       </c>
       <c r="R6" s="4">
-        <v>0.7948717948717948</v>
+        <v>0.7643312101910829</v>
       </c>
       <c r="S6" s="4">
-        <v>0.6794871794871795</v>
+        <v>0.6401273885350318</v>
       </c>
       <c r="T6" s="5">
-        <v>11728.52075875264</v>
+        <v>11489.12475879973</v>
       </c>
       <c r="U6" s="5">
-        <v>10886.83889046917</v>
+        <v>10708.8003909513</v>
       </c>
       <c r="V6" s="5">
-        <v>10170.78416356596</v>
+        <v>10008.73044450538</v>
       </c>
       <c r="W6" s="5">
-        <v>10120.23291505648</v>
+        <v>10007.03980988244</v>
       </c>
       <c r="X6" s="5">
-        <v>9528.01710110537</v>
+        <v>9500.894813770712</v>
       </c>
       <c r="Y6" s="5">
-        <v>10182.43385277486</v>
+        <v>10137.30066434292</v>
       </c>
       <c r="Z6" s="5">
-        <v>-841.6818682834692</v>
+        <v>-780.324367848425</v>
       </c>
       <c r="AA6" s="5">
-        <v>-1557.736595186681</v>
+        <v>-1480.39431429435</v>
       </c>
       <c r="AB6" s="5">
-        <v>-1608.287843696156</v>
+        <v>-1482.084948917287</v>
       </c>
       <c r="AC6" s="5">
-        <v>-2200.50365764727</v>
+        <v>-1988.229945029016</v>
       </c>
       <c r="AD6" s="5">
-        <v>-1546.086905977778</v>
+        <v>-1351.824094456804</v>
       </c>
       <c r="AE6" s="4">
-        <v>-0.07176368491783991</v>
+        <v>-0.06791852157848322</v>
       </c>
       <c r="AF6" s="4">
-        <v>-0.1328161178402818</v>
+        <v>-0.1288517920532187</v>
       </c>
       <c r="AG6" s="4">
-        <v>-0.1371262307308396</v>
+        <v>-0.128998942916181</v>
       </c>
       <c r="AH6" s="4">
-        <v>-0.1876198800266522</v>
+        <v>-0.1730532122132449</v>
       </c>
       <c r="AI6" s="4">
-        <v>-0.1318228391951287</v>
+        <v>-0.1176611902853103</v>
       </c>
     </row>
     <row r="7" spans="1:35">
@@ -948,106 +948,106 @@
         <v>17</v>
       </c>
       <c r="B7" s="2">
-        <v>13943</v>
+        <v>13900</v>
       </c>
       <c r="C7" s="2">
-        <v>3783585.5</v>
+        <v>3775081.5</v>
       </c>
       <c r="D7" s="2">
-        <v>3850634.5</v>
+        <v>3841683.5</v>
       </c>
       <c r="E7" s="2">
-        <v>3896061</v>
+        <v>3887935.5</v>
       </c>
       <c r="F7" s="2">
-        <v>3909376</v>
+        <v>3901636.5</v>
       </c>
       <c r="G7" s="2">
-        <v>3900672.5</v>
+        <v>3893067.5</v>
       </c>
       <c r="H7" s="2">
-        <v>3856510.5</v>
+        <v>3848935.5</v>
       </c>
       <c r="I7" s="3">
-        <v>22649165274.96992</v>
+        <v>21983106885.59358</v>
       </c>
       <c r="J7" s="3">
-        <v>22090610947.54299</v>
+        <v>21521770749.55957</v>
       </c>
       <c r="K7" s="3">
-        <v>22139107399.21059</v>
+        <v>21615557065.67004</v>
       </c>
       <c r="L7" s="3">
-        <v>22126789149.42093</v>
+        <v>21722932572.52991</v>
       </c>
       <c r="M7" s="3">
-        <v>21407753296.52517</v>
+        <v>21274168449.88446</v>
       </c>
       <c r="N7" s="3">
-        <v>22020222715.63958</v>
+        <v>21875911665.99558</v>
       </c>
       <c r="O7" s="4">
-        <v>0.7578713332855196</v>
+        <v>0.7348201438848921</v>
       </c>
       <c r="P7" s="4">
-        <v>0.7631786559563939</v>
+        <v>0.736546762589928</v>
       </c>
       <c r="Q7" s="4">
-        <v>0.750699275622176</v>
+        <v>0.7011510791366906</v>
       </c>
       <c r="R7" s="4">
-        <v>0.8333931004805278</v>
+        <v>0.7583453237410072</v>
       </c>
       <c r="S7" s="4">
-        <v>0.6784766549523058</v>
+        <v>0.5771223021582734</v>
       </c>
       <c r="T7" s="5">
-        <v>5986.16451907058</v>
+        <v>5823.213852626383</v>
       </c>
       <c r="U7" s="5">
-        <v>5736.875558441859</v>
+        <v>5602.171743080754</v>
       </c>
       <c r="V7" s="5">
-        <v>5682.433462723142</v>
+        <v>5559.649090287132</v>
       </c>
       <c r="W7" s="5">
-        <v>5659.928630405704</v>
+        <v>5567.646440802446</v>
       </c>
       <c r="X7" s="5">
-        <v>5488.221145590963</v>
+        <v>5464.628714987464</v>
       </c>
       <c r="Y7" s="5">
-        <v>5709.882733533224</v>
+        <v>5683.626463991298</v>
       </c>
       <c r="Z7" s="5">
-        <v>-249.2889606287217</v>
+        <v>-221.0421095456286</v>
       </c>
       <c r="AA7" s="5">
-        <v>-303.7310563474384</v>
+        <v>-263.5647623392506</v>
       </c>
       <c r="AB7" s="5">
-        <v>-326.2358886648763</v>
+        <v>-255.5674118239367</v>
       </c>
       <c r="AC7" s="5">
-        <v>-497.9433734796175</v>
+        <v>-358.5851376389182</v>
       </c>
       <c r="AD7" s="5">
-        <v>-276.281785537356</v>
+        <v>-139.5873886350846</v>
       </c>
       <c r="AE7" s="4">
-        <v>-0.0416441879996019</v>
+        <v>-0.0379587827512009</v>
       </c>
       <c r="AF7" s="4">
-        <v>-0.05073884210496038</v>
+        <v>-0.04526104811012188</v>
       </c>
       <c r="AG7" s="4">
-        <v>-0.05449831651394843</v>
+        <v>-0.0438876912804208</v>
       </c>
       <c r="AH7" s="4">
-        <v>-0.0831823736038797</v>
+        <v>-0.06157856240797155</v>
       </c>
       <c r="AI7" s="4">
-        <v>-0.04615338998071039</v>
+        <v>-0.02397085049042602</v>
       </c>
     </row>
     <row r="8" spans="1:35">
@@ -1055,106 +1055,106 @@
         <v>18</v>
       </c>
       <c r="B8" s="2">
-        <v>2569</v>
+        <v>2562</v>
       </c>
       <c r="C8" s="2">
-        <v>2514188.5</v>
+        <v>2506159.5</v>
       </c>
       <c r="D8" s="2">
-        <v>2537047</v>
+        <v>2529029.5</v>
       </c>
       <c r="E8" s="2">
-        <v>2560631</v>
+        <v>2552781</v>
       </c>
       <c r="F8" s="2">
-        <v>2609792</v>
+        <v>2601896</v>
       </c>
       <c r="G8" s="2">
-        <v>2665222.5</v>
+        <v>2657509.5</v>
       </c>
       <c r="H8" s="2">
-        <v>2721206.5</v>
+        <v>2713338.5</v>
       </c>
       <c r="I8" s="3">
-        <v>18006065325.83688</v>
+        <v>17451427441.80795</v>
       </c>
       <c r="J8" s="3">
-        <v>17511267301.65795</v>
+        <v>17045955271.25373</v>
       </c>
       <c r="K8" s="3">
-        <v>17126776237.4051</v>
+        <v>16707009519.63356</v>
       </c>
       <c r="L8" s="3">
-        <v>17174768449.22147</v>
+        <v>16836216074.3179</v>
       </c>
       <c r="M8" s="3">
-        <v>16858254605.6343</v>
+        <v>16730657049.21549</v>
       </c>
       <c r="N8" s="3">
-        <v>18030068389.73757</v>
+        <v>17905036514.62319</v>
       </c>
       <c r="O8" s="4">
-        <v>0.7532113662903853</v>
+        <v>0.7263856362217018</v>
       </c>
       <c r="P8" s="4">
-        <v>0.8583106267029973</v>
+        <v>0.8348946135831382</v>
       </c>
       <c r="Q8" s="4">
-        <v>0.878941222265473</v>
+        <v>0.8458235753317721</v>
       </c>
       <c r="R8" s="4">
-        <v>0.9455040871934605</v>
+        <v>0.9113973458235753</v>
       </c>
       <c r="S8" s="4">
-        <v>0.8193849746983262</v>
+        <v>0.739656518345043</v>
       </c>
       <c r="T8" s="5">
-        <v>7161.780163196546</v>
+        <v>6963.414516038562</v>
       </c>
       <c r="U8" s="5">
-        <v>6902.224240094073</v>
+        <v>6740.117215419486</v>
       </c>
       <c r="V8" s="5">
-        <v>6688.498357399054</v>
+        <v>6544.630941562774</v>
       </c>
       <c r="W8" s="5">
-        <v>6580.895507849465</v>
+        <v>6470.749051583115</v>
       </c>
       <c r="X8" s="5">
-        <v>6325.271006692424</v>
+        <v>6295.615142378792</v>
       </c>
       <c r="Y8" s="5">
-        <v>6625.76264966939</v>
+        <v>6598.895240908271</v>
       </c>
       <c r="Z8" s="5">
-        <v>-259.5559231024727</v>
+        <v>-223.2973006190769</v>
       </c>
       <c r="AA8" s="5">
-        <v>-473.2818057974919</v>
+        <v>-418.7835744757886</v>
       </c>
       <c r="AB8" s="5">
-        <v>-580.8846553470812</v>
+        <v>-492.6654644554474</v>
       </c>
       <c r="AC8" s="5">
-        <v>-836.5091565041221</v>
+        <v>-667.79937365977</v>
       </c>
       <c r="AD8" s="5">
-        <v>-536.0175135271556</v>
+        <v>-364.5192751302911</v>
       </c>
       <c r="AE8" s="4">
-        <v>-0.03624181658581149</v>
+        <v>-0.03206721359252196</v>
       </c>
       <c r="AF8" s="4">
-        <v>-0.06608438056080324</v>
+        <v>-0.06014054936859214</v>
       </c>
       <c r="AG8" s="4">
-        <v>-0.08110897599624345</v>
+        <v>-0.07075055826717047</v>
       </c>
       <c r="AH8" s="4">
-        <v>-0.1168018477867881</v>
+        <v>-0.09590113759875329</v>
       </c>
       <c r="AI8" s="4">
-        <v>-0.07484417300068491</v>
+        <v>-0.05234777770168764</v>
       </c>
     </row>
     <row r="9" spans="1:35">
@@ -1162,106 +1162,106 @@
         <v>19</v>
       </c>
       <c r="B9" s="2">
-        <v>673</v>
+        <v>677</v>
       </c>
       <c r="C9" s="2">
-        <v>74529.5</v>
+        <v>75458.5</v>
       </c>
       <c r="D9" s="2">
-        <v>77804</v>
+        <v>78759</v>
       </c>
       <c r="E9" s="2">
-        <v>81520</v>
+        <v>82477.5</v>
       </c>
       <c r="F9" s="2">
-        <v>85704.5</v>
+        <v>86711.5</v>
       </c>
       <c r="G9" s="2">
-        <v>89919</v>
+        <v>90957.5</v>
       </c>
       <c r="H9" s="2">
-        <v>93887.5</v>
+        <v>94969</v>
       </c>
       <c r="I9" s="3">
-        <v>2015243011.016027</v>
+        <v>1980877345.516955</v>
       </c>
       <c r="J9" s="3">
-        <v>2022587518.905587</v>
+        <v>1995244978.737161</v>
       </c>
       <c r="K9" s="3">
-        <v>2094048203.119052</v>
+        <v>2069064674.445189</v>
       </c>
       <c r="L9" s="3">
-        <v>2160031754.996564</v>
+        <v>2145295629.7596</v>
       </c>
       <c r="M9" s="3">
-        <v>2100101343.515276</v>
+        <v>2099847226.52606</v>
       </c>
       <c r="N9" s="3">
-        <v>2278715127.668795</v>
+        <v>2292034371.365124</v>
       </c>
       <c r="O9" s="4">
-        <v>0.736998514115899</v>
+        <v>0.7193500738552437</v>
       </c>
       <c r="P9" s="4">
-        <v>0.7548291233283804</v>
+        <v>0.7326440177252584</v>
       </c>
       <c r="Q9" s="4">
-        <v>0.8008915304606241</v>
+        <v>0.7621861152141802</v>
       </c>
       <c r="R9" s="4">
-        <v>0.8855869242199108</v>
+        <v>0.843426883308715</v>
       </c>
       <c r="S9" s="4">
-        <v>0.8187221396731055</v>
+        <v>0.7607090103397341</v>
       </c>
       <c r="T9" s="5">
-        <v>27039.53482870577</v>
+        <v>26251.21550941187</v>
       </c>
       <c r="U9" s="5">
-        <v>25995.93232874386</v>
+        <v>25333.54891170737</v>
       </c>
       <c r="V9" s="5">
-        <v>25687.53929243194</v>
+        <v>25086.41356060973</v>
       </c>
       <c r="W9" s="5">
-        <v>25203.24784575564</v>
+        <v>24740.61260339862</v>
       </c>
       <c r="X9" s="5">
-        <v>23355.47930376534</v>
+        <v>23086.0261828443</v>
       </c>
       <c r="Y9" s="5">
-        <v>24270.69767188172</v>
+        <v>24134.55307905868</v>
       </c>
       <c r="Z9" s="5">
-        <v>-1043.602499961911</v>
+        <v>-917.6665977044941</v>
       </c>
       <c r="AA9" s="5">
-        <v>-1351.995536273833</v>
+        <v>-1164.801948802135</v>
       </c>
       <c r="AB9" s="5">
-        <v>-1836.286982950129</v>
+        <v>-1510.602906013246</v>
       </c>
       <c r="AC9" s="5">
-        <v>-3684.055524940431</v>
+        <v>-3165.189326567572</v>
       </c>
       <c r="AD9" s="5">
-        <v>-2768.837156824055</v>
+        <v>-2116.66243035319</v>
       </c>
       <c r="AE9" s="4">
-        <v>-0.03859543097072804</v>
+        <v>-0.03495710883846437</v>
       </c>
       <c r="AF9" s="4">
-        <v>-0.05000069508734761</v>
+        <v>-0.04437135295257155</v>
       </c>
       <c r="AG9" s="4">
-        <v>-0.06791118984046596</v>
+        <v>-0.05754411278485938</v>
       </c>
       <c r="AH9" s="4">
-        <v>-0.1362470008555531</v>
+        <v>-0.1205730578621304</v>
       </c>
       <c r="AI9" s="4">
-        <v>-0.1023995854353454</v>
+        <v>-0.08063102562219648</v>
       </c>
     </row>
   </sheetData>

--- a/output/Phase.xlsx
+++ b/output/Phase.xlsx
@@ -648,22 +648,22 @@
         <v>7023</v>
       </c>
       <c r="I4" s="3">
-        <v>34181328.52926175</v>
+        <v>34261648.29981892</v>
       </c>
       <c r="J4" s="3">
-        <v>33476038.09192182</v>
+        <v>33538582.93039495</v>
       </c>
       <c r="K4" s="3">
-        <v>35076199.22592485</v>
+        <v>35132281.77107649</v>
       </c>
       <c r="L4" s="3">
-        <v>37371299.60768432</v>
+        <v>37391418.68131825</v>
       </c>
       <c r="M4" s="3">
-        <v>39612291.29145883</v>
+        <v>39611701.85578573</v>
       </c>
       <c r="N4" s="3">
-        <v>44185534.98916744</v>
+        <v>44186559.19346254</v>
       </c>
       <c r="O4" s="4">
         <v>0.8181818181818182</v>
@@ -681,52 +681,52 @@
         <v>0.6363636363636364</v>
       </c>
       <c r="T4" s="5">
-        <v>6748.534754049704</v>
+        <v>6764.392556726341</v>
       </c>
       <c r="U4" s="5">
-        <v>6138.450186471408</v>
+        <v>6149.918938368929</v>
       </c>
       <c r="V4" s="5">
-        <v>5876.394576298349</v>
+        <v>5885.790211270981</v>
       </c>
       <c r="W4" s="5">
-        <v>5697.713006202824</v>
+        <v>5700.78040575061</v>
       </c>
       <c r="X4" s="5">
-        <v>5828.765640297062</v>
+        <v>5828.678907561173</v>
       </c>
       <c r="Y4" s="5">
-        <v>6291.547058118674</v>
+        <v>6291.692893843448</v>
       </c>
       <c r="Z4" s="5">
-        <v>-610.0845675782966</v>
+        <v>-614.4736183574123</v>
       </c>
       <c r="AA4" s="5">
-        <v>-872.1401777513547</v>
+        <v>-878.6023454553606</v>
       </c>
       <c r="AB4" s="5">
-        <v>-1050.82174784688</v>
+        <v>-1063.612150975731</v>
       </c>
       <c r="AC4" s="5">
-        <v>-919.7691137526426</v>
+        <v>-935.7136491651681</v>
       </c>
       <c r="AD4" s="5">
-        <v>-456.9876959310304</v>
+        <v>-472.6996628828929</v>
       </c>
       <c r="AE4" s="4">
-        <v>-0.09040252289020123</v>
+        <v>-0.09083943801374972</v>
       </c>
       <c r="AF4" s="4">
-        <v>-0.1292340055340154</v>
+        <v>-0.1298863627572443</v>
       </c>
       <c r="AG4" s="4">
-        <v>-0.1557110967260407</v>
+        <v>-0.1572369051701623</v>
       </c>
       <c r="AH4" s="4">
-        <v>-0.1362916762339709</v>
+        <v>-0.138329294362835</v>
       </c>
       <c r="AI4" s="4">
-        <v>-0.06771658035202355</v>
+        <v>-0.06988057817739335</v>
       </c>
     </row>
     <row r="5" spans="1:35">
@@ -755,22 +755,22 @@
         <v>148823</v>
       </c>
       <c r="I5" s="3">
-        <v>882860789.9731221</v>
+        <v>884935348.778636</v>
       </c>
       <c r="J5" s="3">
-        <v>891927046.566197</v>
+        <v>893593475.3384469</v>
       </c>
       <c r="K5" s="3">
-        <v>908792226.186622</v>
+        <v>910245273.6143174</v>
       </c>
       <c r="L5" s="3">
-        <v>924955143.841405</v>
+        <v>925453099.246821</v>
       </c>
       <c r="M5" s="3">
-        <v>940297923.9891421</v>
+        <v>940283932.2425988</v>
       </c>
       <c r="N5" s="3">
-        <v>993483854.3376101</v>
+        <v>993506882.9244764</v>
       </c>
       <c r="O5" s="4">
         <v>0.8363636363636363</v>
@@ -782,58 +782,58 @@
         <v>0.8636363636363636</v>
       </c>
       <c r="R5" s="4">
-        <v>0.9181818181818182</v>
+        <v>0.9272727272727272</v>
       </c>
       <c r="S5" s="4">
         <v>0.8545454545454545</v>
       </c>
       <c r="T5" s="5">
-        <v>7464.916883460633</v>
+        <v>7482.458051025095</v>
       </c>
       <c r="U5" s="5">
-        <v>7116.032300542897</v>
+        <v>7129.327514557919</v>
       </c>
       <c r="V5" s="5">
-        <v>6873.723938255626</v>
+        <v>6884.714180688796</v>
       </c>
       <c r="W5" s="5">
-        <v>6633.189383810683</v>
+        <v>6636.760402936107</v>
       </c>
       <c r="X5" s="5">
-        <v>6490.229253302011</v>
+        <v>6490.132677907763</v>
       </c>
       <c r="Y5" s="5">
-        <v>6675.606958182607</v>
+        <v>6675.761696273266</v>
       </c>
       <c r="Z5" s="5">
-        <v>-348.8845829177353</v>
+        <v>-353.1305364671762</v>
       </c>
       <c r="AA5" s="5">
-        <v>-591.1929452050063</v>
+        <v>-597.7438703362996</v>
       </c>
       <c r="AB5" s="5">
-        <v>-831.7274996499491</v>
+        <v>-845.697648088988</v>
       </c>
       <c r="AC5" s="5">
-        <v>-974.6876301586217</v>
+        <v>-992.3253731173327</v>
       </c>
       <c r="AD5" s="5">
-        <v>-789.3099252780257</v>
+        <v>-806.6963547518289</v>
       </c>
       <c r="AE5" s="4">
-        <v>-0.04673656630936218</v>
+        <v>-0.04719445589391547</v>
       </c>
       <c r="AF5" s="4">
-        <v>-0.07919618589657185</v>
+        <v>-0.07988603026707364</v>
       </c>
       <c r="AG5" s="4">
-        <v>-0.1114181862483608</v>
+        <v>-0.1130240413406832</v>
       </c>
       <c r="AH5" s="4">
-        <v>-0.1305691202427387</v>
+        <v>-0.1326202387437888</v>
       </c>
       <c r="AI5" s="4">
-        <v>-0.1057359294953211</v>
+        <v>-0.1078116775597976</v>
       </c>
     </row>
     <row r="6" spans="1:35">
@@ -862,22 +862,22 @@
         <v>20542</v>
       </c>
       <c r="I6" s="3">
-        <v>226019806.8174876</v>
+        <v>226550911.3650893</v>
       </c>
       <c r="J6" s="3">
-        <v>216456982.3022987</v>
+        <v>216861398.9467449</v>
       </c>
       <c r="K6" s="3">
-        <v>221037807.501679</v>
+        <v>221391219.8751115</v>
       </c>
       <c r="L6" s="3">
-        <v>224332814.9380396</v>
+        <v>224453585.9165613</v>
       </c>
       <c r="M6" s="3">
-        <v>216848423.2295027</v>
+        <v>216845196.498805</v>
       </c>
       <c r="N6" s="3">
-        <v>208240430.2469323</v>
+        <v>208245257.1827864</v>
       </c>
       <c r="O6" s="4">
         <v>0.6496815286624203</v>
@@ -886,61 +886,61 @@
         <v>0.7993630573248408</v>
       </c>
       <c r="Q6" s="4">
-        <v>0.7515923566878981</v>
+        <v>0.7611464968152867</v>
       </c>
       <c r="R6" s="4">
         <v>0.7643312101910829</v>
       </c>
       <c r="S6" s="4">
-        <v>0.6401273885350318</v>
+        <v>0.643312101910828</v>
       </c>
       <c r="T6" s="5">
-        <v>11489.12475879973</v>
+        <v>11516.12206710328</v>
       </c>
       <c r="U6" s="5">
-        <v>10708.8003909513</v>
+        <v>10728.80814063944</v>
       </c>
       <c r="V6" s="5">
-        <v>10008.73044450538</v>
+        <v>10024.73317825223</v>
       </c>
       <c r="W6" s="5">
-        <v>10007.03980988244</v>
+        <v>10012.42716255431</v>
       </c>
       <c r="X6" s="5">
-        <v>9500.894813770712</v>
+        <v>9500.753439309719</v>
       </c>
       <c r="Y6" s="5">
-        <v>10137.30066434292</v>
+        <v>10137.53564320837</v>
       </c>
       <c r="Z6" s="5">
-        <v>-780.324367848425</v>
+        <v>-787.313926463843</v>
       </c>
       <c r="AA6" s="5">
-        <v>-1480.39431429435</v>
+        <v>-1491.388888851045</v>
       </c>
       <c r="AB6" s="5">
-        <v>-1482.084948917287</v>
+        <v>-1503.694904548965</v>
       </c>
       <c r="AC6" s="5">
-        <v>-1988.229945029016</v>
+        <v>-2015.368627793559</v>
       </c>
       <c r="AD6" s="5">
-        <v>-1351.824094456804</v>
+        <v>-1378.586423894907</v>
       </c>
       <c r="AE6" s="4">
-        <v>-0.06791852157848322</v>
+        <v>-0.06836623664426655</v>
       </c>
       <c r="AF6" s="4">
-        <v>-0.1288517920532187</v>
+        <v>-0.1295044356217199</v>
       </c>
       <c r="AG6" s="4">
-        <v>-0.128998942916181</v>
+        <v>-0.1305730258664407</v>
       </c>
       <c r="AH6" s="4">
-        <v>-0.1730532122132449</v>
+        <v>-0.1750041043373985</v>
       </c>
       <c r="AI6" s="4">
-        <v>-0.1176611902853103</v>
+        <v>-0.1197092576704227</v>
       </c>
     </row>
     <row r="7" spans="1:35">
@@ -948,106 +948,106 @@
         <v>17</v>
       </c>
       <c r="B7" s="2">
-        <v>13900</v>
+        <v>13902</v>
       </c>
       <c r="C7" s="2">
-        <v>3775081.5</v>
+        <v>3775452.5</v>
       </c>
       <c r="D7" s="2">
-        <v>3841683.5</v>
+        <v>3842055.5</v>
       </c>
       <c r="E7" s="2">
-        <v>3887935.5</v>
+        <v>3888311.5</v>
       </c>
       <c r="F7" s="2">
-        <v>3901636.5</v>
+        <v>3901997</v>
       </c>
       <c r="G7" s="2">
-        <v>3893067.5</v>
+        <v>3893404.5</v>
       </c>
       <c r="H7" s="2">
-        <v>3848935.5</v>
+        <v>3849271.5</v>
       </c>
       <c r="I7" s="3">
-        <v>21983106885.59358</v>
+        <v>22036363958.62372</v>
       </c>
       <c r="J7" s="3">
-        <v>21521770749.55957</v>
+        <v>21564035051.56988</v>
       </c>
       <c r="K7" s="3">
-        <v>21615557065.67004</v>
+        <v>21652543143.27745</v>
       </c>
       <c r="L7" s="3">
-        <v>21722932572.52991</v>
+        <v>21737816174.22038</v>
       </c>
       <c r="M7" s="3">
-        <v>21274168449.88446</v>
+        <v>21275819964.90931</v>
       </c>
       <c r="N7" s="3">
-        <v>21875911665.99558</v>
+        <v>21878692778.50014</v>
       </c>
       <c r="O7" s="4">
-        <v>0.7348201438848921</v>
+        <v>0.7370162566537188</v>
       </c>
       <c r="P7" s="4">
-        <v>0.736546762589928</v>
+        <v>0.7394619479211624</v>
       </c>
       <c r="Q7" s="4">
-        <v>0.7011510791366906</v>
+        <v>0.7097539922313336</v>
       </c>
       <c r="R7" s="4">
-        <v>0.7583453237410072</v>
+        <v>0.7666522802474464</v>
       </c>
       <c r="S7" s="4">
-        <v>0.5771223021582734</v>
+        <v>0.5880448856279672</v>
       </c>
       <c r="T7" s="5">
-        <v>5823.213852626383</v>
+        <v>5836.747769604762</v>
       </c>
       <c r="U7" s="5">
-        <v>5602.171743080754</v>
+        <v>5612.629763305054</v>
       </c>
       <c r="V7" s="5">
-        <v>5559.649090287132</v>
+        <v>5568.623589770893</v>
       </c>
       <c r="W7" s="5">
-        <v>5567.646440802446</v>
+        <v>5570.946408780011</v>
       </c>
       <c r="X7" s="5">
-        <v>5464.628714987464</v>
+        <v>5464.579897852718</v>
       </c>
       <c r="Y7" s="5">
-        <v>5683.626463991298</v>
+        <v>5683.85284812987</v>
       </c>
       <c r="Z7" s="5">
-        <v>-221.0421095456286</v>
+        <v>-224.1180062997073</v>
       </c>
       <c r="AA7" s="5">
-        <v>-263.5647623392506</v>
+        <v>-268.1241798338688</v>
       </c>
       <c r="AB7" s="5">
-        <v>-255.5674118239367</v>
+        <v>-265.8013608247511</v>
       </c>
       <c r="AC7" s="5">
-        <v>-358.5851376389182</v>
+        <v>-372.1678717520435</v>
       </c>
       <c r="AD7" s="5">
-        <v>-139.5873886350846</v>
+        <v>-152.8949214748918</v>
       </c>
       <c r="AE7" s="4">
-        <v>-0.0379587827512009</v>
+        <v>-0.03839775421970715</v>
       </c>
       <c r="AF7" s="4">
-        <v>-0.04526104811012188</v>
+        <v>-0.0459372565712266</v>
       </c>
       <c r="AG7" s="4">
-        <v>-0.0438876912804208</v>
+        <v>-0.0455392919681965</v>
       </c>
       <c r="AH7" s="4">
-        <v>-0.06157856240797155</v>
+        <v>-0.06376288413388898</v>
       </c>
       <c r="AI7" s="4">
-        <v>-0.02397085049042602</v>
+        <v>-0.02619522506542116</v>
       </c>
     </row>
     <row r="8" spans="1:35">
@@ -1055,106 +1055,106 @@
         <v>18</v>
       </c>
       <c r="B8" s="2">
-        <v>2562</v>
+        <v>2561</v>
       </c>
       <c r="C8" s="2">
-        <v>2506159.5</v>
+        <v>2505033.5</v>
       </c>
       <c r="D8" s="2">
-        <v>2529029.5</v>
+        <v>2527966.5</v>
       </c>
       <c r="E8" s="2">
-        <v>2552781</v>
+        <v>2551769</v>
       </c>
       <c r="F8" s="2">
-        <v>2601896</v>
+        <v>2600939</v>
       </c>
       <c r="G8" s="2">
-        <v>2657509.5</v>
+        <v>2656527.5</v>
       </c>
       <c r="H8" s="2">
-        <v>2713338.5</v>
+        <v>2712370.5</v>
       </c>
       <c r="I8" s="3">
-        <v>17451427441.80795</v>
+        <v>17483655312.56708</v>
       </c>
       <c r="J8" s="3">
-        <v>17045955271.25373</v>
+        <v>17069797462.35013</v>
       </c>
       <c r="K8" s="3">
-        <v>16707009519.63356</v>
+        <v>16726241348.55186</v>
       </c>
       <c r="L8" s="3">
-        <v>16836216074.3179</v>
+        <v>16841549108.31321</v>
       </c>
       <c r="M8" s="3">
-        <v>16730657049.21549</v>
+        <v>16723713678.39743</v>
       </c>
       <c r="N8" s="3">
-        <v>17905036514.62319</v>
+        <v>17898312753.82991</v>
       </c>
       <c r="O8" s="4">
-        <v>0.7263856362217018</v>
+        <v>0.7270597422881687</v>
       </c>
       <c r="P8" s="4">
-        <v>0.8348946135831382</v>
+        <v>0.8367825068332683</v>
       </c>
       <c r="Q8" s="4">
-        <v>0.8458235753317721</v>
+        <v>0.8492776259273721</v>
       </c>
       <c r="R8" s="4">
-        <v>0.9113973458235753</v>
+        <v>0.9140960562280359</v>
       </c>
       <c r="S8" s="4">
-        <v>0.739656518345043</v>
+        <v>0.7461928934010152</v>
       </c>
       <c r="T8" s="5">
-        <v>6963.414516038562</v>
+        <v>6979.409781373015</v>
       </c>
       <c r="U8" s="5">
-        <v>6740.117215419486</v>
+        <v>6752.382779736254</v>
       </c>
       <c r="V8" s="5">
-        <v>6544.630941562774</v>
+        <v>6554.763126502384</v>
       </c>
       <c r="W8" s="5">
-        <v>6470.749051583115</v>
+        <v>6475.180351524278</v>
       </c>
       <c r="X8" s="5">
-        <v>6295.615142378792</v>
+        <v>6295.32864929779</v>
       </c>
       <c r="Y8" s="5">
-        <v>6598.895240908271</v>
+        <v>6598.771352892205</v>
       </c>
       <c r="Z8" s="5">
-        <v>-223.2973006190769</v>
+        <v>-227.0270016367613</v>
       </c>
       <c r="AA8" s="5">
-        <v>-418.7835744757886</v>
+        <v>-424.6466548706312</v>
       </c>
       <c r="AB8" s="5">
-        <v>-492.6654644554474</v>
+        <v>-504.2294298487368</v>
       </c>
       <c r="AC8" s="5">
-        <v>-667.79937365977</v>
+        <v>-684.0811320752255</v>
       </c>
       <c r="AD8" s="5">
-        <v>-364.5192751302911</v>
+        <v>-380.63842848081</v>
       </c>
       <c r="AE8" s="4">
-        <v>-0.03206721359252196</v>
+        <v>-0.03252810893016511</v>
       </c>
       <c r="AF8" s="4">
-        <v>-0.06014054936859214</v>
+        <v>-0.06084277441395525</v>
       </c>
       <c r="AG8" s="4">
-        <v>-0.07075055826717047</v>
+        <v>-0.0722452822865407</v>
       </c>
       <c r="AH8" s="4">
-        <v>-0.09590113759875329</v>
+        <v>-0.09801418078372959</v>
       </c>
       <c r="AI8" s="4">
-        <v>-0.05234777770168764</v>
+        <v>-0.05453733774117642</v>
       </c>
     </row>
     <row r="9" spans="1:35">
@@ -1183,85 +1183,85 @@
         <v>94969</v>
       </c>
       <c r="I9" s="3">
-        <v>1980877345.516955</v>
+        <v>1985532039.197385</v>
       </c>
       <c r="J9" s="3">
-        <v>1995244978.737161</v>
+        <v>1998972787.702092</v>
       </c>
       <c r="K9" s="3">
-        <v>2069064674.445189</v>
+        <v>2072372855.365217</v>
       </c>
       <c r="L9" s="3">
-        <v>2145295629.7596</v>
+        <v>2146450563.122761</v>
       </c>
       <c r="M9" s="3">
-        <v>2099847226.52606</v>
+        <v>2099815980.546012</v>
       </c>
       <c r="N9" s="3">
-        <v>2292034371.365124</v>
+        <v>2292087499.870823</v>
       </c>
       <c r="O9" s="4">
-        <v>0.7193500738552437</v>
+        <v>0.7223042836041359</v>
       </c>
       <c r="P9" s="4">
-        <v>0.7326440177252584</v>
+        <v>0.7385524372230429</v>
       </c>
       <c r="Q9" s="4">
-        <v>0.7621861152141802</v>
+        <v>0.7710487444608567</v>
       </c>
       <c r="R9" s="4">
-        <v>0.843426883308715</v>
+        <v>0.844903988183161</v>
       </c>
       <c r="S9" s="4">
-        <v>0.7607090103397341</v>
+        <v>0.7651403249630724</v>
       </c>
       <c r="T9" s="5">
-        <v>26251.21550941187</v>
+        <v>26312.90098792562</v>
       </c>
       <c r="U9" s="5">
-        <v>25333.54891170737</v>
+        <v>25380.88075905093</v>
       </c>
       <c r="V9" s="5">
-        <v>25086.41356060973</v>
+        <v>25126.5236623954</v>
       </c>
       <c r="W9" s="5">
-        <v>24740.61260339862</v>
+        <v>24753.93186743121</v>
       </c>
       <c r="X9" s="5">
-        <v>23086.0261828443</v>
+        <v>23085.68265998968</v>
       </c>
       <c r="Y9" s="5">
-        <v>24134.55307905868</v>
+        <v>24135.11250903793</v>
       </c>
       <c r="Z9" s="5">
-        <v>-917.6665977044941</v>
+        <v>-932.0202288746877</v>
       </c>
       <c r="AA9" s="5">
-        <v>-1164.801948802135</v>
+        <v>-1186.377325530219</v>
       </c>
       <c r="AB9" s="5">
-        <v>-1510.602906013246</v>
+        <v>-1558.969120494414</v>
       </c>
       <c r="AC9" s="5">
-        <v>-3165.189326567572</v>
+        <v>-3227.218327935934</v>
       </c>
       <c r="AD9" s="5">
-        <v>-2116.66243035319</v>
+        <v>-2177.788478887687</v>
       </c>
       <c r="AE9" s="4">
-        <v>-0.03495710883846437</v>
+        <v>-0.0354206565555949</v>
       </c>
       <c r="AF9" s="4">
-        <v>-0.04437135295257155</v>
+        <v>-0.04508728726166</v>
       </c>
       <c r="AG9" s="4">
-        <v>-0.05754411278485938</v>
+        <v>-0.0592473297113757</v>
       </c>
       <c r="AH9" s="4">
-        <v>-0.1205730578621304</v>
+        <v>-0.1226477585811169</v>
       </c>
       <c r="AI9" s="4">
-        <v>-0.08063102562219648</v>
+        <v>-0.08276504669276197</v>
       </c>
     </row>
   </sheetData>

--- a/output/Phase.xlsx
+++ b/output/Phase.xlsx
@@ -648,22 +648,22 @@
         <v>7023</v>
       </c>
       <c r="I4" s="3">
-        <v>34261648.29981892</v>
+        <v>35276007.68730465</v>
       </c>
       <c r="J4" s="3">
-        <v>33538582.93039495</v>
+        <v>34641511.39731737</v>
       </c>
       <c r="K4" s="3">
-        <v>35132281.77107649</v>
+        <v>36117299.44208948</v>
       </c>
       <c r="L4" s="3">
-        <v>37391418.68131825</v>
+        <v>38446523.47912714</v>
       </c>
       <c r="M4" s="3">
-        <v>39611701.85578573</v>
+        <v>40743303.48000959</v>
       </c>
       <c r="N4" s="3">
-        <v>44186559.19346254</v>
+        <v>45898537.45130551</v>
       </c>
       <c r="O4" s="4">
         <v>0.8181818181818182</v>
@@ -681,52 +681,52 @@
         <v>0.6363636363636364</v>
       </c>
       <c r="T4" s="5">
-        <v>6764.392556726341</v>
+        <v>6964.660945173673</v>
       </c>
       <c r="U4" s="5">
-        <v>6149.918938368929</v>
+        <v>6352.161253748487</v>
       </c>
       <c r="V4" s="5">
-        <v>5885.790211270981</v>
+        <v>6050.812437944292</v>
       </c>
       <c r="W4" s="5">
-        <v>5700.78040575061</v>
+        <v>5861.644073658658</v>
       </c>
       <c r="X4" s="5">
-        <v>5828.678907561173</v>
+        <v>5995.188858153265</v>
       </c>
       <c r="Y4" s="5">
-        <v>6291.692893843448</v>
+        <v>6535.460266453867</v>
       </c>
       <c r="Z4" s="5">
-        <v>-614.4736183574123</v>
+        <v>-612.499691425186</v>
       </c>
       <c r="AA4" s="5">
-        <v>-878.6023454553606</v>
+        <v>-913.8485072293815</v>
       </c>
       <c r="AB4" s="5">
-        <v>-1063.612150975731</v>
+        <v>-1103.016871515015</v>
       </c>
       <c r="AC4" s="5">
-        <v>-935.7136491651681</v>
+        <v>-969.4720870204083</v>
       </c>
       <c r="AD4" s="5">
-        <v>-472.6996628828929</v>
+        <v>-429.2006787198061</v>
       </c>
       <c r="AE4" s="4">
-        <v>-0.09083943801374972</v>
+        <v>-0.08794393528225264</v>
       </c>
       <c r="AF4" s="4">
-        <v>-0.1298863627572443</v>
+        <v>-0.1312122032103593</v>
       </c>
       <c r="AG4" s="4">
-        <v>-0.1572369051701623</v>
+        <v>-0.1583733767082196</v>
       </c>
       <c r="AH4" s="4">
-        <v>-0.138329294362835</v>
+        <v>-0.1391987484605732</v>
       </c>
       <c r="AI4" s="4">
-        <v>-0.06988057817739335</v>
+        <v>-0.06162549506695381</v>
       </c>
     </row>
     <row r="5" spans="1:35">
@@ -755,25 +755,25 @@
         <v>148823</v>
       </c>
       <c r="I5" s="3">
-        <v>884935348.778636</v>
+        <v>911134977.8944468</v>
       </c>
       <c r="J5" s="3">
-        <v>893593475.3384469</v>
+        <v>922979620.9562366</v>
       </c>
       <c r="K5" s="3">
-        <v>910245273.6143174</v>
+        <v>935766180.1500359</v>
       </c>
       <c r="L5" s="3">
-        <v>925453099.246821</v>
+        <v>951649148.802821</v>
       </c>
       <c r="M5" s="3">
-        <v>940283932.2425988</v>
+        <v>967145358.9197738</v>
       </c>
       <c r="N5" s="3">
-        <v>993506882.9244764</v>
+        <v>1031999633.064561</v>
       </c>
       <c r="O5" s="4">
-        <v>0.8363636363636363</v>
+        <v>0.8272727272727273</v>
       </c>
       <c r="P5" s="4">
         <v>0.8454545454545455</v>
@@ -785,55 +785,55 @@
         <v>0.9272727272727272</v>
       </c>
       <c r="S5" s="4">
-        <v>0.8545454545454545</v>
+        <v>0.8272727272727273</v>
       </c>
       <c r="T5" s="5">
-        <v>7482.458051025095</v>
+        <v>7703.98567570642</v>
       </c>
       <c r="U5" s="5">
-        <v>7129.327514557919</v>
+        <v>7363.778036279069</v>
       </c>
       <c r="V5" s="5">
-        <v>6884.714180688796</v>
+        <v>7077.743633544755</v>
       </c>
       <c r="W5" s="5">
-        <v>6636.760402936107</v>
+        <v>6824.621791641927</v>
       </c>
       <c r="X5" s="5">
-        <v>6490.132677907763</v>
+        <v>6675.538614428411</v>
       </c>
       <c r="Y5" s="5">
-        <v>6675.761696273266</v>
+        <v>6934.409554064637</v>
       </c>
       <c r="Z5" s="5">
-        <v>-353.1305364671762</v>
+        <v>-340.2076394273508</v>
       </c>
       <c r="AA5" s="5">
-        <v>-597.7438703362996</v>
+        <v>-626.2420421616653</v>
       </c>
       <c r="AB5" s="5">
-        <v>-845.697648088988</v>
+        <v>-879.3638840644926</v>
       </c>
       <c r="AC5" s="5">
-        <v>-992.3253731173327</v>
+        <v>-1028.447061278009</v>
       </c>
       <c r="AD5" s="5">
-        <v>-806.6963547518289</v>
+        <v>-769.5761216417832</v>
       </c>
       <c r="AE5" s="4">
-        <v>-0.04719445589391547</v>
+        <v>-0.04415995223098013</v>
       </c>
       <c r="AF5" s="4">
-        <v>-0.07988603026707364</v>
+        <v>-0.08128805900255542</v>
       </c>
       <c r="AG5" s="4">
-        <v>-0.1130240413406832</v>
+        <v>-0.1141440185743672</v>
       </c>
       <c r="AH5" s="4">
-        <v>-0.1326202387437888</v>
+        <v>-0.1334954534665207</v>
       </c>
       <c r="AI5" s="4">
-        <v>-0.1078116775597976</v>
+        <v>-0.09989324409942091</v>
       </c>
     </row>
     <row r="6" spans="1:35">
@@ -862,28 +862,28 @@
         <v>20542</v>
       </c>
       <c r="I6" s="3">
-        <v>226550911.3650893</v>
+        <v>233258237.342977</v>
       </c>
       <c r="J6" s="3">
-        <v>216861398.9467449</v>
+        <v>223992964.7249226</v>
       </c>
       <c r="K6" s="3">
-        <v>221391219.8751115</v>
+        <v>227598453.0176978</v>
       </c>
       <c r="L6" s="3">
-        <v>224453585.9165613</v>
+        <v>230787179.6591354</v>
       </c>
       <c r="M6" s="3">
-        <v>216845196.498805</v>
+        <v>223039890.6186526</v>
       </c>
       <c r="N6" s="3">
-        <v>208245257.1827864</v>
+        <v>216313578.3895799</v>
       </c>
       <c r="O6" s="4">
-        <v>0.6496815286624203</v>
+        <v>0.643312101910828</v>
       </c>
       <c r="P6" s="4">
-        <v>0.7993630573248408</v>
+        <v>0.802547770700637</v>
       </c>
       <c r="Q6" s="4">
         <v>0.7611464968152867</v>
@@ -892,55 +892,55 @@
         <v>0.7643312101910829</v>
       </c>
       <c r="S6" s="4">
-        <v>0.643312101910828</v>
+        <v>0.6401273885350318</v>
       </c>
       <c r="T6" s="5">
-        <v>11516.12206710328</v>
+        <v>11857.07141151236</v>
       </c>
       <c r="U6" s="5">
-        <v>10728.80814063944</v>
+        <v>11081.62888858272</v>
       </c>
       <c r="V6" s="5">
-        <v>10024.73317825223</v>
+        <v>10305.80058492145</v>
       </c>
       <c r="W6" s="5">
-        <v>10012.42716255431</v>
+        <v>10294.9561574277</v>
       </c>
       <c r="X6" s="5">
-        <v>9500.753439309719</v>
+        <v>9772.164853603774</v>
       </c>
       <c r="Y6" s="5">
-        <v>10137.53564320837</v>
+        <v>10530.30758395385</v>
       </c>
       <c r="Z6" s="5">
-        <v>-787.313926463843</v>
+        <v>-775.4425229296394</v>
       </c>
       <c r="AA6" s="5">
-        <v>-1491.388888851045</v>
+        <v>-1551.270826590911</v>
       </c>
       <c r="AB6" s="5">
-        <v>-1503.694904548965</v>
+        <v>-1562.115254084665</v>
       </c>
       <c r="AC6" s="5">
-        <v>-2015.368627793559</v>
+        <v>-2084.906557908589</v>
       </c>
       <c r="AD6" s="5">
-        <v>-1378.586423894907</v>
+        <v>-1326.763827558518</v>
       </c>
       <c r="AE6" s="4">
-        <v>-0.06836623664426655</v>
+        <v>-0.06539916105900656</v>
       </c>
       <c r="AF6" s="4">
-        <v>-0.1295044356217199</v>
+        <v>-0.130830858038414</v>
       </c>
       <c r="AG6" s="4">
-        <v>-0.1305730258664407</v>
+        <v>-0.1317454538199005</v>
       </c>
       <c r="AH6" s="4">
-        <v>-0.1750041043373985</v>
+        <v>-0.1758365523449825</v>
       </c>
       <c r="AI6" s="4">
-        <v>-0.1197092576704227</v>
+        <v>-0.1118964187286858</v>
       </c>
     </row>
     <row r="7" spans="1:35">
@@ -948,106 +948,106 @@
         <v>17</v>
       </c>
       <c r="B7" s="2">
-        <v>13902</v>
+        <v>14136</v>
       </c>
       <c r="C7" s="2">
-        <v>3775452.5</v>
+        <v>3835275</v>
       </c>
       <c r="D7" s="2">
-        <v>3842055.5</v>
+        <v>3903367.5</v>
       </c>
       <c r="E7" s="2">
-        <v>3888311.5</v>
+        <v>3950583</v>
       </c>
       <c r="F7" s="2">
-        <v>3901997</v>
+        <v>3965162</v>
       </c>
       <c r="G7" s="2">
-        <v>3893404.5</v>
+        <v>3955853</v>
       </c>
       <c r="H7" s="2">
-        <v>3849271.5</v>
+        <v>3910406.5</v>
       </c>
       <c r="I7" s="3">
-        <v>22036363958.62372</v>
+        <v>23037772952.77493</v>
       </c>
       <c r="J7" s="3">
-        <v>21564035051.56988</v>
+        <v>22613840832.99216</v>
       </c>
       <c r="K7" s="3">
-        <v>21652543143.27745</v>
+        <v>22606546734.58122</v>
       </c>
       <c r="L7" s="3">
-        <v>21737816174.22038</v>
+        <v>22709078968.88093</v>
       </c>
       <c r="M7" s="3">
-        <v>21275819964.90931</v>
+        <v>22236590662.47926</v>
       </c>
       <c r="N7" s="3">
-        <v>21878692778.50014</v>
+        <v>23075874845.08318</v>
       </c>
       <c r="O7" s="4">
-        <v>0.7370162566537188</v>
+        <v>0.720217883418223</v>
       </c>
       <c r="P7" s="4">
-        <v>0.7394619479211624</v>
+        <v>0.7474533106960951</v>
       </c>
       <c r="Q7" s="4">
-        <v>0.7097539922313336</v>
+        <v>0.7176004527447651</v>
       </c>
       <c r="R7" s="4">
-        <v>0.7666522802474464</v>
+        <v>0.7687464629315224</v>
       </c>
       <c r="S7" s="4">
-        <v>0.5880448856279672</v>
+        <v>0.5470430107526881</v>
       </c>
       <c r="T7" s="5">
-        <v>5836.747769604762</v>
+        <v>6006.811233294857</v>
       </c>
       <c r="U7" s="5">
-        <v>5612.629763305054</v>
+        <v>5793.418332501914</v>
       </c>
       <c r="V7" s="5">
-        <v>5568.623589770893</v>
+        <v>5722.331801301534</v>
       </c>
       <c r="W7" s="5">
-        <v>5570.946408780011</v>
+        <v>5727.150358265547</v>
       </c>
       <c r="X7" s="5">
-        <v>5464.579897852718</v>
+        <v>5621.187304603903</v>
       </c>
       <c r="Y7" s="5">
-        <v>5683.85284812987</v>
+        <v>5901.144764638455</v>
       </c>
       <c r="Z7" s="5">
-        <v>-224.1180062997073</v>
+        <v>-213.3929007929428</v>
       </c>
       <c r="AA7" s="5">
-        <v>-268.1241798338688</v>
+        <v>-284.4794319933226</v>
       </c>
       <c r="AB7" s="5">
-        <v>-265.8013608247511</v>
+        <v>-279.6608750293099</v>
       </c>
       <c r="AC7" s="5">
-        <v>-372.1678717520435</v>
+        <v>-385.623928690954</v>
       </c>
       <c r="AD7" s="5">
-        <v>-152.8949214748918</v>
+        <v>-105.6664686564018</v>
       </c>
       <c r="AE7" s="4">
-        <v>-0.03839775421970715</v>
+        <v>-0.03552515511227283</v>
       </c>
       <c r="AF7" s="4">
-        <v>-0.0459372565712266</v>
+        <v>-0.04735947592567846</v>
       </c>
       <c r="AG7" s="4">
-        <v>-0.0455392919681965</v>
+        <v>-0.04655729374001161</v>
       </c>
       <c r="AH7" s="4">
-        <v>-0.06376288413388898</v>
+        <v>-0.06419777710900887</v>
       </c>
       <c r="AI7" s="4">
-        <v>-0.02619522506542116</v>
+        <v>-0.01759110858531865</v>
       </c>
     </row>
     <row r="8" spans="1:35">
@@ -1055,106 +1055,106 @@
         <v>18</v>
       </c>
       <c r="B8" s="2">
-        <v>2561</v>
+        <v>2609</v>
       </c>
       <c r="C8" s="2">
-        <v>2505033.5</v>
+        <v>2544030.5</v>
       </c>
       <c r="D8" s="2">
-        <v>2527966.5</v>
+        <v>2566727</v>
       </c>
       <c r="E8" s="2">
-        <v>2551769</v>
+        <v>2590611</v>
       </c>
       <c r="F8" s="2">
-        <v>2600939</v>
+        <v>2640221</v>
       </c>
       <c r="G8" s="2">
-        <v>2656527.5</v>
+        <v>2696522.5</v>
       </c>
       <c r="H8" s="2">
-        <v>2712370.5</v>
+        <v>2753184.5</v>
       </c>
       <c r="I8" s="3">
-        <v>17483655312.56708</v>
+        <v>18286752182.72747</v>
       </c>
       <c r="J8" s="3">
-        <v>17069797462.35013</v>
+        <v>17908769916.10479</v>
       </c>
       <c r="K8" s="3">
-        <v>16726241348.55186</v>
+        <v>17466786475.23361</v>
       </c>
       <c r="L8" s="3">
-        <v>16841549108.31321</v>
+        <v>17596827765.48954</v>
       </c>
       <c r="M8" s="3">
-        <v>16723713678.39743</v>
+        <v>17465556174.53242</v>
       </c>
       <c r="N8" s="3">
-        <v>17898312753.82991</v>
+        <v>18871196241.16299</v>
       </c>
       <c r="O8" s="4">
-        <v>0.7270597422881687</v>
+        <v>0.7125335377539287</v>
       </c>
       <c r="P8" s="4">
-        <v>0.8367825068332683</v>
+        <v>0.8413185128401687</v>
       </c>
       <c r="Q8" s="4">
-        <v>0.8492776259273721</v>
+        <v>0.8516673054810272</v>
       </c>
       <c r="R8" s="4">
-        <v>0.9140960562280359</v>
+        <v>0.9164430816404753</v>
       </c>
       <c r="S8" s="4">
-        <v>0.7461928934010152</v>
+        <v>0.7125335377539287</v>
       </c>
       <c r="T8" s="5">
-        <v>6979.409781373015</v>
+        <v>7188.102572955581</v>
       </c>
       <c r="U8" s="5">
-        <v>6752.382779736254</v>
+        <v>6977.278813097299</v>
       </c>
       <c r="V8" s="5">
-        <v>6554.763126502384</v>
+        <v>6742.342433979323</v>
       </c>
       <c r="W8" s="5">
-        <v>6475.180351524278</v>
+        <v>6664.907129171968</v>
       </c>
       <c r="X8" s="5">
-        <v>6295.32864929779</v>
+        <v>6477.066731144434</v>
       </c>
       <c r="Y8" s="5">
-        <v>6598.771352892205</v>
+        <v>6854.315880814742</v>
       </c>
       <c r="Z8" s="5">
-        <v>-227.0270016367613</v>
+        <v>-210.8237598582828</v>
       </c>
       <c r="AA8" s="5">
-        <v>-424.6466548706312</v>
+        <v>-445.7601389762585</v>
       </c>
       <c r="AB8" s="5">
-        <v>-504.2294298487368</v>
+        <v>-523.195443783613</v>
       </c>
       <c r="AC8" s="5">
-        <v>-684.0811320752255</v>
+        <v>-711.0358418111473</v>
       </c>
       <c r="AD8" s="5">
-        <v>-380.63842848081</v>
+        <v>-333.7866921408395</v>
       </c>
       <c r="AE8" s="4">
-        <v>-0.03252810893016511</v>
+        <v>-0.02932954249310282</v>
       </c>
       <c r="AF8" s="4">
-        <v>-0.06084277441395525</v>
+        <v>-0.06201360295738967</v>
       </c>
       <c r="AG8" s="4">
-        <v>-0.0722452822865407</v>
+        <v>-0.07278630743975134</v>
       </c>
       <c r="AH8" s="4">
-        <v>-0.09801418078372959</v>
+        <v>-0.09891843286799196</v>
       </c>
       <c r="AI8" s="4">
-        <v>-0.05453733774117642</v>
+        <v>-0.04643599458314274</v>
       </c>
     </row>
     <row r="9" spans="1:35">
@@ -1162,106 +1162,106 @@
         <v>19</v>
       </c>
       <c r="B9" s="2">
-        <v>677</v>
+        <v>682</v>
       </c>
       <c r="C9" s="2">
-        <v>75458.5</v>
+        <v>76350</v>
       </c>
       <c r="D9" s="2">
-        <v>78759</v>
+        <v>79731</v>
       </c>
       <c r="E9" s="2">
-        <v>82477.5</v>
+        <v>83556.5</v>
       </c>
       <c r="F9" s="2">
-        <v>86711.5</v>
+        <v>87847.5</v>
       </c>
       <c r="G9" s="2">
-        <v>90957.5</v>
+        <v>92117.5</v>
       </c>
       <c r="H9" s="2">
-        <v>94969</v>
+        <v>96128</v>
       </c>
       <c r="I9" s="3">
-        <v>1985532039.197385</v>
+        <v>2072067813.827875</v>
       </c>
       <c r="J9" s="3">
-        <v>1998972787.702092</v>
+        <v>2093626266.89647</v>
       </c>
       <c r="K9" s="3">
-        <v>2072372855.365217</v>
+        <v>2160824737.408542</v>
       </c>
       <c r="L9" s="3">
-        <v>2146450563.122761</v>
+        <v>2240765731.366646</v>
       </c>
       <c r="M9" s="3">
-        <v>2099815980.546012</v>
+        <v>2193091110.466921</v>
       </c>
       <c r="N9" s="3">
-        <v>2292087499.870823</v>
+        <v>2411794387.314446</v>
       </c>
       <c r="O9" s="4">
-        <v>0.7223042836041359</v>
+        <v>0.7155425219941349</v>
       </c>
       <c r="P9" s="4">
-        <v>0.7385524372230429</v>
+        <v>0.749266862170088</v>
       </c>
       <c r="Q9" s="4">
-        <v>0.7710487444608567</v>
+        <v>0.7785923753665689</v>
       </c>
       <c r="R9" s="4">
-        <v>0.844903988183161</v>
+        <v>0.8519061583577713</v>
       </c>
       <c r="S9" s="4">
-        <v>0.7651403249630724</v>
+        <v>0.7404692082111437</v>
       </c>
       <c r="T9" s="5">
-        <v>26312.90098792562</v>
+        <v>27139.06763363294</v>
       </c>
       <c r="U9" s="5">
-        <v>25380.88075905093</v>
+        <v>26258.62295589507</v>
       </c>
       <c r="V9" s="5">
-        <v>25126.5236623954</v>
+        <v>25860.64204949396</v>
       </c>
       <c r="W9" s="5">
-        <v>24753.93186743121</v>
+        <v>25507.45019911376</v>
       </c>
       <c r="X9" s="5">
-        <v>23085.68265998968</v>
+        <v>23807.54048326236</v>
       </c>
       <c r="Y9" s="5">
-        <v>24135.11250903793</v>
+        <v>25089.40566031174</v>
       </c>
       <c r="Z9" s="5">
-        <v>-932.0202288746877</v>
+        <v>-880.4446777378689</v>
       </c>
       <c r="AA9" s="5">
-        <v>-1186.377325530219</v>
+        <v>-1278.425584138986</v>
       </c>
       <c r="AB9" s="5">
-        <v>-1558.969120494414</v>
+        <v>-1631.617434519183</v>
       </c>
       <c r="AC9" s="5">
-        <v>-3227.218327935934</v>
+        <v>-3331.527150370577</v>
       </c>
       <c r="AD9" s="5">
-        <v>-2177.788478887687</v>
+        <v>-2049.661973321206</v>
       </c>
       <c r="AE9" s="4">
-        <v>-0.0354206565555949</v>
+        <v>-0.03244196483178918</v>
       </c>
       <c r="AF9" s="4">
-        <v>-0.04508728726166</v>
+        <v>-0.04710646664053619</v>
       </c>
       <c r="AG9" s="4">
-        <v>-0.0592473297113757</v>
+        <v>-0.06012061492109444</v>
       </c>
       <c r="AH9" s="4">
-        <v>-0.1226477585811169</v>
+        <v>-0.1227576125806871</v>
       </c>
       <c r="AI9" s="4">
-        <v>-0.08276504669276197</v>
+        <v>-0.07552440640153379</v>
       </c>
     </row>
   </sheetData>
